--- a/API/report/excelReport/APITestCase.xlsx
+++ b/API/report/excelReport/APITestCase.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -202,6 +202,11 @@
       <name val="宋体"/>
       <b val="1"/>
       <color rgb="00808000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="34">
@@ -675,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +719,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
